--- a/schedule/schedule_N-03_C-updated_I-014.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-014.xlsx
@@ -244,10 +244,10 @@
     <t>S11060</t>
   </si>
   <si>
+    <t>W10040</t>
+  </si>
+  <si>
     <t>F20060</t>
-  </si>
-  <si>
-    <t>W10040</t>
   </si>
   <si>
     <t>F20070</t>
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG36"/>
+  <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:60">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -906,8 +906,11 @@
       <c r="BG1" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:59">
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:60">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -962,7 +965,7 @@
         <v>73</v>
       </c>
       <c r="Z3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s">
         <v>79</v>
@@ -979,86 +982,86 @@
       <c r="AG3" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>84</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>85</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>86</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>51</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>91</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>95</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>97</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>99</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>39</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>43</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>52</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>53</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>55</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>56</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>60</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>64</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>67</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>68</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>71</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>72</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:60">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s">
         <v>79</v>
@@ -1116,86 +1119,86 @@
       <c r="AG4" t="s">
         <v>83</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>84</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>86</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>87</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>38</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>91</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>93</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>95</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>97</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>39</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>43</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>49</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>52</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>53</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>55</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>56</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>58</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>60</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>64</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>67</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>68</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>71</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>72</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:60">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s">
         <v>79</v>
@@ -1253,86 +1256,86 @@
       <c r="AG5" t="s">
         <v>83</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>84</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>86</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>87</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>51</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>91</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>93</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>95</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>97</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>99</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>39</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>43</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>49</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>52</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>53</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>55</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>56</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>58</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>60</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>64</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>67</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>68</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>71</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>72</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:60">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:60">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:60">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1385,29 +1388,29 @@
       <c r="X8" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>60</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>64</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>67</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>68</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:60">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1438,29 +1441,29 @@
       <c r="W9" t="s">
         <v>58</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>60</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>64</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>67</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>68</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>71</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>72</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:60">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:60">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1508,26 +1511,26 @@
       <c r="Z11" t="s">
         <v>60</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>64</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>67</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>71</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>72</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:60">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1549,17 +1552,17 @@
       <c r="U12" t="s">
         <v>69</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>74</v>
       </c>
-      <c r="X12" t="s">
-        <v>76</v>
-      </c>
       <c r="Y12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:60">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1581,17 +1584,17 @@
       <c r="U13" t="s">
         <v>69</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>74</v>
       </c>
-      <c r="X13" t="s">
-        <v>76</v>
-      </c>
       <c r="Y13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:60">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:60">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:60">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:60">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>73</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s">
         <v>79</v>
@@ -1796,89 +1799,89 @@
       <c r="AF17" t="s">
         <v>82</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>83</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>84</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>85</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>86</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>87</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>38</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>51</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>91</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>93</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>95</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>97</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>99</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>39</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>43</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>49</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>52</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>53</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>55</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>56</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>58</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>60</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>64</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>67</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>68</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>71</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>72</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:60">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>73</v>
       </c>
       <c r="Z18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s">
         <v>79</v>
@@ -1933,65 +1936,65 @@
       <c r="AF18" t="s">
         <v>82</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>83</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>84</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>85</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>38</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>39</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>43</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>49</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>52</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>53</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>55</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>56</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>58</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>60</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>64</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>67</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>68</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>71</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>72</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:60">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2016,17 +2019,17 @@
       <c r="U19" t="s">
         <v>69</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>74</v>
       </c>
-      <c r="X19" t="s">
-        <v>76</v>
-      </c>
       <c r="Y19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:60">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2054,14 +2057,14 @@
       <c r="W20" t="s">
         <v>74</v>
       </c>
-      <c r="X20" t="s">
-        <v>76</v>
-      </c>
       <c r="Y20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:60">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2089,14 +2092,14 @@
       <c r="W21" t="s">
         <v>74</v>
       </c>
-      <c r="X21" t="s">
-        <v>76</v>
-      </c>
       <c r="Y21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:60">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:60">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:60">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2237,55 +2240,55 @@
         <v>73</v>
       </c>
       <c r="AA24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD24" t="s">
         <v>79</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>80</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>81</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>82</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>83</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>84</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>85</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>87</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>38</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>51</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>91</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>93</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>95</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>97</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:60">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2326,73 +2329,73 @@
         <v>73</v>
       </c>
       <c r="AA25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s">
         <v>79</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>80</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>81</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>82</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>83</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>84</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>85</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>38</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>88</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>89</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>90</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>92</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>94</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>96</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>98</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>100</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>101</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
         <v>103</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AV25" t="s">
         <v>105</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>107</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:60">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>73</v>
       </c>
       <c r="AA26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s">
         <v>79</v>
@@ -2447,80 +2450,80 @@
       <c r="AF26" t="s">
         <v>82</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>83</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>84</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>85</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>86</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>87</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>38</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>51</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>91</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>93</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>95</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>97</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>99</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>102</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>104</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>106</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>108</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>110</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>111</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>112</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>113</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>114</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>115</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>116</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:60">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2557,26 +2560,26 @@
       <c r="Z27" t="s">
         <v>60</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>64</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>67</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>68</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>71</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>72</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:60">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2598,20 +2601,20 @@
       <c r="T28" t="s">
         <v>62</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>69</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>74</v>
       </c>
-      <c r="X28" t="s">
-        <v>76</v>
-      </c>
       <c r="Y28" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:60">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2636,17 +2639,17 @@
       <c r="V29" t="s">
         <v>69</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>74</v>
       </c>
-      <c r="X29" t="s">
-        <v>76</v>
-      </c>
       <c r="Y29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:60">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2671,17 +2674,17 @@
       <c r="V30" t="s">
         <v>69</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>74</v>
       </c>
-      <c r="X30" t="s">
-        <v>76</v>
-      </c>
       <c r="Y30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:60">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,17 +2706,17 @@
       <c r="V31" t="s">
         <v>69</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>74</v>
       </c>
-      <c r="X31" t="s">
-        <v>76</v>
-      </c>
       <c r="Y31" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:60">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2744,26 +2747,26 @@
       <c r="Y32" t="s">
         <v>60</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>64</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>67</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>68</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>71</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>72</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2794,29 +2797,29 @@
       <c r="Y33" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>60</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>64</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>67</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>68</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>71</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>72</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2861,29 +2864,29 @@
       <c r="X35" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>64</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>67</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>68</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>71</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>72</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2917,25 +2920,25 @@
       <c r="X36" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>60</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>64</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>67</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>68</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>71</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>72</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>75</v>
       </c>
     </row>
